--- a/8. Importacion_Vehiculos.xlsx
+++ b/8. Importacion_Vehiculos.xlsx
@@ -497,17 +497,17 @@
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" style="11" bestFit="1" customWidth="1"/>
@@ -529,8 +529,8 @@
       <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
@@ -538,11 +538,11 @@
       <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5">
+      <c r="E1" s="5">
         <v>2012</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>3</v>
@@ -591,8 +591,8 @@
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>0</v>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>1</v>
@@ -600,11 +600,11 @@
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="E2" s="5">
         <v>2012</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>3</v>
@@ -653,8 +653,8 @@
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>0</v>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>1</v>
@@ -662,11 +662,11 @@
       <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="E3" s="5">
         <v>2012</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>3</v>
@@ -715,8 +715,8 @@
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>0</v>
+      <c r="B4" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>1</v>
@@ -724,11 +724,11 @@
       <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="E4" s="5">
         <v>2012</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>3</v>
@@ -777,8 +777,8 @@
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>0</v>
+      <c r="B5" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>1</v>
@@ -786,11 +786,11 @@
       <c r="D5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="E5" s="5">
         <v>2012</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>3</v>
